--- a/wine.xlsx
+++ b/wine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>search</t>
   </si>
@@ -46,6 +46,9 @@
     <t>20 Fl Oz (Pack of 16)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/41MdXtKCUhL.jpg</t>
+  </si>
+  <si>
     <t>canned beer</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>12.02 Fl Oz (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/81nXzWEV0CL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>whisky</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>6 Count (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/91+NMFFApeL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
     <t>red/blush wine</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>4 Count (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71z0P52syqL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
     <t>sparkling wine</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>8.4 Fl Oz (Pack of 12)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/41lEop2xZbL.jpg</t>
+  </si>
+  <si>
     <t>white wine</t>
   </si>
   <si>
@@ -101,6 +116,51 @@
   </si>
   <si>
     <t>25.36 Fl Oz (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71z-ot8bnvL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>brandy</t>
+  </si>
+  <si>
+    <t>Waterford Lismore Diamond Brandy Pair</t>
+  </si>
+  <si>
+    <t>6 Ounce (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41mfgLiKbvL._AC_.jpg</t>
+  </si>
+  <si>
+    <t>liqueur</t>
+  </si>
+  <si>
+    <t>Bartesian Premium Cocktail and Margarita Machine for the Home Bar with Push-Button Simplicity and an Easy to Clean Design (55300)</t>
+  </si>
+  <si>
+    <t>2.2 Pound (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81EYbpvXJYL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>liquor</t>
+  </si>
+  <si>
+    <t>Steklyannoe Barrel with Ship Whiskey Decanter Set With Four Glasses and Whiskey Stones</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71jOFr956wL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>rum</t>
+  </si>
+  <si>
+    <t>5 Ounce (Pack of 3)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71nqbQpiwPL._AC_SL1245_.jpg</t>
   </si>
 </sst>
 </file>
@@ -108,11 +168,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -137,6 +205,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -144,9 +220,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,23 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,84 +306,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,31 +342,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,19 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,108 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,36 +535,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +572,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,168 +627,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +786,9 @@
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.4464285714286" customWidth="1"/>
     <col min="3" max="3" width="77.9732142857143" customWidth="1"/>
@@ -1078,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,124 +1160,230 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>124.52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>59.95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>49.95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>32.97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>89.95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>156.89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>349.85</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>109.95</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>349.85</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="https://m.media-amazon.com/images/I/81nXzWEV0CL._SL1500_.jpg"/>
+    <hyperlink ref="H4" r:id="rId2" display="https://m.media-amazon.com/images/I/91+NMFFApeL._AC_SL1500_.jpg"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://m.media-amazon.com/images/I/71z0P52syqL._AC_SL1500_.jpg"/>
+    <hyperlink ref="H6" r:id="rId4" display="https://m.media-amazon.com/images/I/41lEop2xZbL.jpg"/>
+    <hyperlink ref="H7" r:id="rId5" display="https://m.media-amazon.com/images/I/71z-ot8bnvL._AC_SL1500_.jpg"/>
+    <hyperlink ref="H8" r:id="rId6" display="https://m.media-amazon.com/images/I/41mfgLiKbvL._AC_.jpg"/>
+    <hyperlink ref="H9" r:id="rId7" display="https://m.media-amazon.com/images/I/81EYbpvXJYL._AC_SL1500_.jpg"/>
+    <hyperlink ref="H10" r:id="rId8" display="https://m.media-amazon.com/images/I/71jOFr956wL._AC_SL1500_.jpg"/>
+    <hyperlink ref="H11" r:id="rId9" display="https://m.media-amazon.com/images/I/71nqbQpiwPL._AC_SL1245_.jpg"/>
+    <hyperlink ref="H2" r:id="rId10" display="https://m.media-amazon.com/images/I/41MdXtKCUhL.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
